--- a/DemoCart/ExcelReport/Report.xlsx
+++ b/DemoCart/ExcelReport/Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
   <si>
     <t>MacBook
 Intel Core 2 Duo processor Powered by an Intel Core 2 Duo processor at speeds up to 2.16GHz, t..

--- a/DemoCart/ExcelReport/Report.xlsx
+++ b/DemoCart/ExcelReport/Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
   <si>
     <t>MacBook
 Intel Core 2 Duo processor Powered by an Intel Core 2 Duo processor at speeds up to 2.16GHz, t..

--- a/DemoCart/ExcelReport/Report.xlsx
+++ b/DemoCart/ExcelReport/Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
   <si>
     <t>MacBook
 Intel Core 2 Duo processor Powered by an Intel Core 2 Duo processor at speeds up to 2.16GHz, t..

--- a/DemoCart/ExcelReport/Report.xlsx
+++ b/DemoCart/ExcelReport/Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
   <si>
     <t>MacBook
 Intel Core 2 Duo processor Powered by an Intel Core 2 Duo processor at speeds up to 2.16GHz, t..

--- a/DemoCart/ExcelReport/Report.xlsx
+++ b/DemoCart/ExcelReport/Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
   <si>
     <t>MacBook
 Intel Core 2 Duo processor Powered by an Intel Core 2 Duo processor at speeds up to 2.16GHz, t..

--- a/DemoCart/ExcelReport/Report.xlsx
+++ b/DemoCart/ExcelReport/Report.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="9">
   <si>
     <t>MacBook
 Intel Core 2 Duo processor Powered by an Intel Core 2 Duo processor at speeds up to 2.16GHz, t..
